--- a/data/output/Pedido_Semana_06_13022026_fitos.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_fitos.xlsx
@@ -678,7 +678,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>3301030005</t>
@@ -737,10 +737,10 @@
       </c>
       <c r="O3" s="7" t="inlineStr"/>
       <c r="P3" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>3302100002</t>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>10.32</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>44</v>
@@ -1071,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>3701020004</t>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>59.92</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>35.95</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="P8" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>3302050003</t>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="P13" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>3302150001</t>
@@ -1606,13 +1606,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
-        <v>14.94</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="P14" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>3302200006</t>
@@ -1690,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>20.34</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="P15" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3302200010</t>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>28.65</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>17.19</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1782,10 +1782,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1881,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>3302200022</t>
@@ -1930,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>11.76</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>3302200025</t>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>3302210008</t>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>3402060001</t>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>10.17</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="inlineStr">
         <is>
@@ -2268,25 +2268,25 @@
         </is>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>3502010003</t>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>18.06</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" hidden="1">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>3603020002</t>
@@ -2500,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="inlineStr">
         <is>
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="P25" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>3501100021</t>
@@ -2581,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="inlineStr">
         <is>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="P26" s="3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="U26" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>3403010002</t>
@@ -2662,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>93.45</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>56.07</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>3302100001</t>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>3302160001</t>
@@ -2983,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3067,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>13.05</v>
+        <v>32.62</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>7.83</v>
+        <v>19.57</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3087,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>3302200007</t>
@@ -3148,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>12.96</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>3302200012</t>
@@ -3229,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>36.75</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>22.05</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3240,10 +3240,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>3402040002</t>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>16.42</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>3603010001</t>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>30.45</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>18.27</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>19.8</v>
+        <v>9.9</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>11.88</v>
+        <v>5.94</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>3302200021</t>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>24.35</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>14.61</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="inlineStr">
         <is>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="P38" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>3501010006</t>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="O39" s="7" t="inlineStr">
         <is>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="P39" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40"/>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>845.76€</t>
+          <t>182.14€</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
